--- a/Bibsam_tidskriftslistor/scifree_data_frontiers_discount.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_frontiers_discount.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="321">
   <si>
     <t xml:space="preserve">1663-4365  </t>
   </si>
@@ -333,15 +333,6 @@
     <t>http://journal.frontiersin.org/journal/human-neuroscience</t>
   </si>
   <si>
-    <t>2297-198X</t>
-  </si>
-  <si>
-    <t>Frontiers in ICT</t>
-  </si>
-  <si>
-    <t>http://journal.frontiersin.org/journal/ict</t>
-  </si>
-  <si>
     <t>1664-3224</t>
   </si>
   <si>
@@ -748,6 +739,249 @@
   </si>
   <si>
     <t>CC-BY</t>
+  </si>
+  <si>
+    <t>Frontiers in Aging</t>
+  </si>
+  <si>
+    <t>Frontiers in Allergy</t>
+  </si>
+  <si>
+    <t>Frontiers in Animal Science</t>
+  </si>
+  <si>
+    <t>Frontiers in Bioinformatics</t>
+  </si>
+  <si>
+    <t>Frontiers in Catalysis</t>
+  </si>
+  <si>
+    <t>Frontiers in Clinical Diabetes and Healthcare</t>
+  </si>
+  <si>
+    <t>Frontiers in Communications and Networks</t>
+  </si>
+  <si>
+    <t>Frontiers in Conservation Science</t>
+  </si>
+  <si>
+    <t>Frontiers in Control Engineering</t>
+  </si>
+  <si>
+    <t>Frontiers in Dental Medicine</t>
+  </si>
+  <si>
+    <t>Frontiers in Electronics</t>
+  </si>
+  <si>
+    <t>Frontiers in Environmental Chemistry</t>
+  </si>
+  <si>
+    <t>Frontiers in Fungal Biology</t>
+  </si>
+  <si>
+    <t>Frontiers in Future Transportation</t>
+  </si>
+  <si>
+    <t>Frontiers in Global Women's Health</t>
+  </si>
+  <si>
+    <t>Frontiers in Neuroergonomics</t>
+  </si>
+  <si>
+    <t>Frontiers in Oral Health</t>
+  </si>
+  <si>
+    <t>Frontiers in Pain Research</t>
+  </si>
+  <si>
+    <t>Frontiers in Photonics</t>
+  </si>
+  <si>
+    <t>Frontiers in Rehabilitation Sciences</t>
+  </si>
+  <si>
+    <t>Frontiers in Remote Sensing</t>
+  </si>
+  <si>
+    <t>Frontiers in Reproductive Health</t>
+  </si>
+  <si>
+    <t>Frontiers in Sensors</t>
+  </si>
+  <si>
+    <t>Frontiers in Soil Science</t>
+  </si>
+  <si>
+    <t>Frontiers in Space Technologies</t>
+  </si>
+  <si>
+    <t>Frontiers in Sustainability</t>
+  </si>
+  <si>
+    <t>Frontiers in Tropical Diseases</t>
+  </si>
+  <si>
+    <t>Frontiers in Virtual Reality</t>
+  </si>
+  <si>
+    <t>2296-6846</t>
+  </si>
+  <si>
+    <t>2673-6217</t>
+  </si>
+  <si>
+    <t>2673-6101</t>
+  </si>
+  <si>
+    <t>2673-6225</t>
+  </si>
+  <si>
+    <t>2673-6616</t>
+  </si>
+  <si>
+    <t>2673-530X</t>
+  </si>
+  <si>
+    <t>2673-611X</t>
+  </si>
+  <si>
+    <t>2673-6268</t>
+  </si>
+  <si>
+    <t>2673-4915</t>
+  </si>
+  <si>
+    <t>2673-5857</t>
+  </si>
+  <si>
+    <t>2673-4486</t>
+  </si>
+  <si>
+    <t>2673-6128</t>
+  </si>
+  <si>
+    <t>2673-5210</t>
+  </si>
+  <si>
+    <t>2673-5059</t>
+  </si>
+  <si>
+    <t>2673-6195</t>
+  </si>
+  <si>
+    <t>2673-4842</t>
+  </si>
+  <si>
+    <t>2673-561X</t>
+  </si>
+  <si>
+    <t>2673-6861</t>
+  </si>
+  <si>
+    <t>2673-6187</t>
+  </si>
+  <si>
+    <t>2673-3153</t>
+  </si>
+  <si>
+    <t>2673-5067</t>
+  </si>
+  <si>
+    <t>2673-5075</t>
+  </si>
+  <si>
+    <t>2673-4524</t>
+  </si>
+  <si>
+    <t>2673-7515</t>
+  </si>
+  <si>
+    <t>2673-4192</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/aging</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/allergy</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/animal-science</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/bioinformatics</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/catalysis</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/clinical-diabetes-and-healthcare</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/communications-and-networks</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/conservation-science</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/control-engineering</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/dental-medicine</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/electronics</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/environmental-chemistry</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/fungal-biology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/future-transportation</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/global-womens-health</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/neuroergonomics</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/oral-health</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/pain-research</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/photonics</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/rehabilitation-sciences</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/remote-sensing</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/reproductive-health</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/sensors</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/soil-science</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/space-technologies</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/sustainability</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/tropical-diseases</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/virtual-reality</t>
   </si>
 </sst>
 </file>
@@ -798,7 +1032,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -809,6 +1087,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G106" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:G106"/>
+  <sortState ref="A2:G108">
+    <sortCondition ref="D1:D108"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Imprint"/>
+    <tableColumn id="2" name="ISSN Electronic"/>
+    <tableColumn id="3" name="ISSN Print"/>
+    <tableColumn id="4" name="Journal Name"/>
+    <tableColumn id="5" name="JournalURL"/>
+    <tableColumn id="6" name="Publishing model"/>
+    <tableColumn id="7" name="CC License options"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1074,1601 +1371,2140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E10" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E15" t="s">
         <v>28</v>
       </c>
-      <c r="F10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D16" t="s">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E16" t="s">
         <v>31</v>
       </c>
-      <c r="F11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E17" t="s">
         <v>34</v>
       </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D19" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E19" t="s">
         <v>37</v>
       </c>
-      <c r="F13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D20" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E20" t="s">
         <v>40</v>
       </c>
-      <c r="F14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E21" t="s">
         <v>43</v>
       </c>
-      <c r="F15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D22" t="s">
         <v>45</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E22" t="s">
         <v>46</v>
       </c>
-      <c r="F16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D23" t="s">
         <v>48</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E23" t="s">
         <v>49</v>
       </c>
-      <c r="F17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D24" t="s">
         <v>51</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E24" t="s">
         <v>52</v>
       </c>
-      <c r="F18" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D25" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" t="s">
+        <v>298</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D26" t="s">
         <v>54</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E26" t="s">
         <v>55</v>
       </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>273</v>
+      </c>
+      <c r="D27" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" t="s">
+        <v>299</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
         <v>56</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D28" t="s">
         <v>57</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E28" t="s">
         <v>58</v>
       </c>
-      <c r="F20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="F28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
         <v>59</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D29" t="s">
         <v>60</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E29" t="s">
         <v>61</v>
       </c>
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" t="s">
+        <v>247</v>
+      </c>
+      <c r="E30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" t="s">
+        <v>301</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D32" t="s">
+        <v>249</v>
+      </c>
+      <c r="E32" t="s">
+        <v>302</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D33" t="s">
         <v>63</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E33" t="s">
         <v>64</v>
       </c>
-      <c r="F22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
         <v>65</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D34" t="s">
         <v>66</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E34" t="s">
         <v>67</v>
       </c>
-      <c r="F23" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
         <v>68</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D35" t="s">
         <v>69</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E35" t="s">
         <v>70</v>
       </c>
-      <c r="F24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D36" t="s">
         <v>72</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E36" t="s">
         <v>73</v>
       </c>
-      <c r="F25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
         <v>74</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D37" t="s">
         <v>75</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E37" t="s">
         <v>76</v>
       </c>
-      <c r="F26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="F37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>277</v>
+      </c>
+      <c r="D38" t="s">
+        <v>250</v>
+      </c>
+      <c r="E38" t="s">
+        <v>303</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D39" t="s">
         <v>78</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E39" t="s">
         <v>79</v>
       </c>
-      <c r="F27" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="F39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G39" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
         <v>80</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D40" t="s">
         <v>81</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E40" t="s">
         <v>82</v>
       </c>
-      <c r="F28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="F40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>278</v>
+      </c>
+      <c r="D41" t="s">
+        <v>251</v>
+      </c>
+      <c r="E41" t="s">
+        <v>304</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
         <v>83</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D42" t="s">
         <v>84</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E42" t="s">
         <v>85</v>
       </c>
-      <c r="F29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
         <v>86</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D43" t="s">
         <v>87</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E43" t="s">
         <v>88</v>
       </c>
-      <c r="F30" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
         <v>89</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D44" t="s">
         <v>90</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E44" t="s">
         <v>91</v>
       </c>
-      <c r="F31" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>279</v>
+      </c>
+      <c r="D45" t="s">
+        <v>252</v>
+      </c>
+      <c r="E45" t="s">
+        <v>305</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>280</v>
+      </c>
+      <c r="D46" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46" t="s">
+        <v>306</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
         <v>92</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D47" t="s">
         <v>93</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E47" t="s">
         <v>94</v>
       </c>
-      <c r="F32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
         <v>95</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D48" t="s">
         <v>96</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E48" t="s">
         <v>97</v>
       </c>
-      <c r="F33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>281</v>
+      </c>
+      <c r="D49" t="s">
+        <v>254</v>
+      </c>
+      <c r="E49" t="s">
+        <v>307</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
         <v>98</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D50" t="s">
         <v>99</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E50" t="s">
         <v>100</v>
       </c>
-      <c r="F34" t="s">
-        <v>3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
         <v>101</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D51" t="s">
         <v>102</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E51" t="s">
         <v>103</v>
       </c>
-      <c r="F35" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="F51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
         <v>104</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D52" t="s">
         <v>105</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E52" t="s">
         <v>106</v>
       </c>
-      <c r="F36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="F52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
         <v>107</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D53" t="s">
         <v>108</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E53" t="s">
         <v>109</v>
       </c>
-      <c r="F37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G37" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="F53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
         <v>110</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D54" t="s">
         <v>111</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E54" t="s">
         <v>112</v>
       </c>
-      <c r="F38" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="F54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
         <v>113</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D55" t="s">
         <v>114</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E55" t="s">
         <v>115</v>
       </c>
-      <c r="F39" t="s">
-        <v>3</v>
-      </c>
-      <c r="G39" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="F55" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
         <v>116</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D56" t="s">
         <v>117</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E56" t="s">
         <v>118</v>
       </c>
-      <c r="F40" t="s">
-        <v>3</v>
-      </c>
-      <c r="G40" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="F56" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
         <v>119</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D57" t="s">
         <v>120</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E57" t="s">
         <v>121</v>
       </c>
-      <c r="F41" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="F57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
         <v>122</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D58" t="s">
         <v>123</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E58" t="s">
         <v>124</v>
       </c>
-      <c r="F42" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="F58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
         <v>125</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D59" t="s">
         <v>126</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E59" t="s">
         <v>127</v>
       </c>
-      <c r="F43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="F59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
         <v>128</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D60" t="s">
         <v>129</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E60" t="s">
         <v>130</v>
       </c>
-      <c r="F44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="F60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
         <v>131</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D61" t="s">
         <v>132</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E61" t="s">
         <v>133</v>
       </c>
-      <c r="F45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="F61" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
         <v>134</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D62" t="s">
         <v>135</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E62" t="s">
         <v>136</v>
       </c>
-      <c r="F46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="F62" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
         <v>137</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D63" t="s">
         <v>138</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E63" t="s">
         <v>139</v>
       </c>
-      <c r="F47" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="F63" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
         <v>140</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D64" t="s">
         <v>141</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E64" t="s">
         <v>142</v>
       </c>
-      <c r="F48" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="F64" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
         <v>143</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D65" t="s">
         <v>144</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E65" t="s">
         <v>145</v>
       </c>
-      <c r="F49" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="F65" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
         <v>146</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D66" t="s">
         <v>147</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E66" t="s">
         <v>148</v>
       </c>
-      <c r="F50" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="F66" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>282</v>
+      </c>
+      <c r="D67" t="s">
+        <v>255</v>
+      </c>
+      <c r="E67" t="s">
+        <v>308</v>
+      </c>
+      <c r="F67" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
         <v>149</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D68" t="s">
         <v>150</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E68" t="s">
         <v>151</v>
       </c>
-      <c r="F51" t="s">
-        <v>3</v>
-      </c>
-      <c r="G51" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="F68" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
         <v>152</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D69" t="s">
         <v>153</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E69" t="s">
         <v>154</v>
       </c>
-      <c r="F52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="F69" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
         <v>155</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D70" t="s">
         <v>156</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E70" t="s">
         <v>157</v>
       </c>
-      <c r="F53" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="F70" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
         <v>158</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D71" t="s">
         <v>159</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E71" t="s">
         <v>160</v>
       </c>
-      <c r="F54" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="F71" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
         <v>161</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D72" t="s">
         <v>162</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E72" t="s">
         <v>163</v>
       </c>
-      <c r="F55" t="s">
-        <v>3</v>
-      </c>
-      <c r="G55" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="F72" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
         <v>164</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D73" t="s">
         <v>165</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E73" t="s">
         <v>166</v>
       </c>
-      <c r="F56" t="s">
-        <v>3</v>
-      </c>
-      <c r="G56" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="F73" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>283</v>
+      </c>
+      <c r="D74" t="s">
+        <v>256</v>
+      </c>
+      <c r="E74" t="s">
+        <v>309</v>
+      </c>
+      <c r="F74" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>284</v>
+      </c>
+      <c r="D75" t="s">
+        <v>257</v>
+      </c>
+      <c r="E75" t="s">
+        <v>310</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
         <v>167</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D76" t="s">
         <v>168</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E76" t="s">
         <v>169</v>
       </c>
-      <c r="F57" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="F76" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
         <v>170</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D77" t="s">
         <v>171</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E77" t="s">
         <v>172</v>
       </c>
-      <c r="F58" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="F77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G77" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>258</v>
+      </c>
+      <c r="E78" t="s">
+        <v>311</v>
+      </c>
+      <c r="F78" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
         <v>173</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D79" t="s">
         <v>174</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E79" t="s">
         <v>175</v>
       </c>
-      <c r="F59" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="F79" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
         <v>176</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D80" t="s">
         <v>177</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E80" t="s">
         <v>178</v>
       </c>
-      <c r="F60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="F80" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
         <v>179</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D81" t="s">
         <v>180</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E81" t="s">
         <v>181</v>
       </c>
-      <c r="F61" t="s">
-        <v>3</v>
-      </c>
-      <c r="G61" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="F81" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
         <v>182</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D82" t="s">
         <v>183</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E82" t="s">
         <v>184</v>
       </c>
-      <c r="F62" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="F82" t="s">
+        <v>3</v>
+      </c>
+      <c r="G82" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
         <v>185</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D83" t="s">
         <v>186</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E83" t="s">
         <v>187</v>
       </c>
-      <c r="F63" t="s">
-        <v>3</v>
-      </c>
-      <c r="G63" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="F83" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
         <v>188</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D84" t="s">
         <v>189</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E84" t="s">
         <v>190</v>
       </c>
-      <c r="F64" t="s">
-        <v>3</v>
-      </c>
-      <c r="G64" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="F84" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
         <v>191</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D85" t="s">
         <v>192</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E85" t="s">
         <v>193</v>
       </c>
-      <c r="F65" t="s">
-        <v>3</v>
-      </c>
-      <c r="G65" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="F85" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>285</v>
+      </c>
+      <c r="D86" t="s">
+        <v>259</v>
+      </c>
+      <c r="E86" t="s">
+        <v>312</v>
+      </c>
+      <c r="F86" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>286</v>
+      </c>
+      <c r="D87" t="s">
+        <v>260</v>
+      </c>
+      <c r="E87" t="s">
+        <v>313</v>
+      </c>
+      <c r="F87" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>287</v>
+      </c>
+      <c r="D88" t="s">
+        <v>261</v>
+      </c>
+      <c r="E88" t="s">
+        <v>314</v>
+      </c>
+      <c r="F88" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
         <v>194</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D89" t="s">
         <v>195</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E89" t="s">
         <v>196</v>
       </c>
-      <c r="F66" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="F89" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
         <v>197</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D90" t="s">
         <v>198</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E90" t="s">
         <v>199</v>
       </c>
-      <c r="F67" t="s">
-        <v>3</v>
-      </c>
-      <c r="G67" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="F90" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>288</v>
+      </c>
+      <c r="D91" t="s">
+        <v>262</v>
+      </c>
+      <c r="E91" t="s">
+        <v>315</v>
+      </c>
+      <c r="F91" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
         <v>200</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D92" t="s">
         <v>201</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E92" t="s">
         <v>202</v>
       </c>
-      <c r="F68" t="s">
-        <v>3</v>
-      </c>
-      <c r="G68" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="F92" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>263</v>
+      </c>
+      <c r="E93" t="s">
+        <v>316</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>289</v>
+      </c>
+      <c r="D94" t="s">
+        <v>264</v>
+      </c>
+      <c r="E94" t="s">
+        <v>317</v>
+      </c>
+      <c r="F94" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
         <v>203</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D95" t="s">
         <v>204</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E95" t="s">
         <v>205</v>
       </c>
-      <c r="F69" t="s">
-        <v>3</v>
-      </c>
-      <c r="G69" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="F95" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
         <v>206</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D96" t="s">
         <v>207</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E96" t="s">
         <v>208</v>
       </c>
-      <c r="F70" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="F96" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>290</v>
+      </c>
+      <c r="D97" t="s">
+        <v>265</v>
+      </c>
+      <c r="E97" t="s">
+        <v>318</v>
+      </c>
+      <c r="F97" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
         <v>209</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D98" t="s">
         <v>210</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E98" t="s">
         <v>211</v>
       </c>
-      <c r="F71" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="F98" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
         <v>212</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D99" t="s">
         <v>213</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E99" t="s">
         <v>214</v>
       </c>
-      <c r="F72" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="F99" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
         <v>215</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D100" t="s">
         <v>216</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E100" t="s">
         <v>217</v>
       </c>
-      <c r="F73" t="s">
-        <v>3</v>
-      </c>
-      <c r="G73" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="F100" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
         <v>218</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D101" t="s">
         <v>219</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E101" t="s">
         <v>220</v>
       </c>
-      <c r="F74" t="s">
-        <v>3</v>
-      </c>
-      <c r="G74" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="F101" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
         <v>221</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D102" t="s">
         <v>222</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E102" t="s">
         <v>223</v>
       </c>
-      <c r="F75" t="s">
-        <v>3</v>
-      </c>
-      <c r="G75" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="F102" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>291</v>
+      </c>
+      <c r="D103" t="s">
+        <v>266</v>
+      </c>
+      <c r="E103" t="s">
+        <v>319</v>
+      </c>
+      <c r="F103" t="s">
+        <v>3</v>
+      </c>
+      <c r="G103" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>227</v>
+      </c>
+      <c r="D104" t="s">
+        <v>228</v>
+      </c>
+      <c r="E104" t="s">
+        <v>229</v>
+      </c>
+      <c r="F104" t="s">
+        <v>3</v>
+      </c>
+      <c r="G104" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
         <v>224</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D105" t="s">
         <v>225</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E105" t="s">
         <v>226</v>
       </c>
-      <c r="F76" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" t="s">
-        <v>227</v>
-      </c>
-      <c r="D77" t="s">
-        <v>228</v>
-      </c>
-      <c r="E77" t="s">
-        <v>229</v>
-      </c>
-      <c r="F77" t="s">
-        <v>3</v>
-      </c>
-      <c r="G77" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" t="s">
-        <v>230</v>
-      </c>
-      <c r="D78" t="s">
-        <v>231</v>
-      </c>
-      <c r="E78" t="s">
-        <v>232</v>
-      </c>
-      <c r="F78" t="s">
-        <v>3</v>
-      </c>
-      <c r="G78" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" t="s">
-        <v>233</v>
-      </c>
-      <c r="E79" t="s">
-        <v>234</v>
-      </c>
-      <c r="F79" t="s">
-        <v>3</v>
-      </c>
-      <c r="G79" t="s">
-        <v>242</v>
+      <c r="F105" t="s">
+        <v>3</v>
+      </c>
+      <c r="G105" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>292</v>
+      </c>
+      <c r="D106" t="s">
+        <v>267</v>
+      </c>
+      <c r="E106" t="s">
+        <v>320</v>
+      </c>
+      <c r="F106" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/scifree_data_frontiers_discount.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_frontiers_discount.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="356">
   <si>
     <t xml:space="preserve">1663-4365  </t>
   </si>
@@ -279,15 +279,6 @@
     <t>http://journal.frontiersin.org/journal/environmental-science</t>
   </si>
   <si>
-    <t xml:space="preserve">1663-070X  </t>
-  </si>
-  <si>
-    <t>Frontiers in Evolutionary Neuroscience [Discontinued]</t>
-  </si>
-  <si>
-    <t>http://journal.frontiersin.org/journal/evolutionary-neuroscience</t>
-  </si>
-  <si>
     <t>2624-893X</t>
   </si>
   <si>
@@ -450,24 +441,6 @@
     <t>http://journal.frontiersin.org/journal/neuroanatomy</t>
   </si>
   <si>
-    <t xml:space="preserve">1662-6427 </t>
-  </si>
-  <si>
-    <t>Frontiers in Neuroenergetics [Discontinued]</t>
-  </si>
-  <si>
-    <t>http://journal.frontiersin.org/journal/neuroenergetics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1662-6443 </t>
-  </si>
-  <si>
-    <t>Frontiers in Neuroengineering [Discontinued]</t>
-  </si>
-  <si>
-    <t>http://journal.frontiersin.org/journal/neuroengineering</t>
-  </si>
-  <si>
     <t>1662-5196</t>
   </si>
   <si>
@@ -982,6 +955,138 @@
   </si>
   <si>
     <t>https://www.frontiersin.org/journals/virtual-reality</t>
+  </si>
+  <si>
+    <t>2673-7647</t>
+  </si>
+  <si>
+    <t>2673-7841</t>
+  </si>
+  <si>
+    <t>2673-6853</t>
+  </si>
+  <si>
+    <t>2673-8619</t>
+  </si>
+  <si>
+    <t>Frontiers in Drug Delivery</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/drug-delivery</t>
+  </si>
+  <si>
+    <t>Frontiers in Drug Discovery</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/drug-discovery</t>
+  </si>
+  <si>
+    <t>Frontiers in Health Services</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/health-services</t>
+  </si>
+  <si>
+    <t>Frontiers in Manufacturing Technology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/manufacturing-technology</t>
+  </si>
+  <si>
+    <t>Frontiers in Network Physiology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/network-physiology</t>
+  </si>
+  <si>
+    <t>Frontiers in Nuclear Medicine</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/nuclear-medicine</t>
+  </si>
+  <si>
+    <t>Frontiers in Ophthalmology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/ophthalmology</t>
+  </si>
+  <si>
+    <t>Frontiers in Radiology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/radiology</t>
+  </si>
+  <si>
+    <t>Frontiers in Systems Biology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/systems-biology</t>
+  </si>
+  <si>
+    <t>Frontiers in Transplantation</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/transplantation</t>
+  </si>
+  <si>
+    <t>Frontiers in Urology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/urology</t>
+  </si>
+  <si>
+    <t>2673-9283</t>
+  </si>
+  <si>
+    <t>Frontiers in Analytical Science</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/analytical-science</t>
+  </si>
+  <si>
+    <t>2673-9895</t>
+  </si>
+  <si>
+    <t>Frontiers in Electronic Materials</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/electronic-materials</t>
+  </si>
+  <si>
+    <t>2673-8600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontiers in Insect Science </t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/insect-science</t>
+  </si>
+  <si>
+    <t>2674-0095</t>
+  </si>
+  <si>
+    <t>Frontiers in Molecular Medicine</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/molecular-medicine</t>
+  </si>
+  <si>
+    <t>2673-8198</t>
+  </si>
+  <si>
+    <t>Frontiers in Signal Processing</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/signal-processing</t>
+  </si>
+  <si>
+    <t>2673-818X</t>
+  </si>
+  <si>
+    <t>Frontiers in Virology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/virology</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1137,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1040,22 +1145,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1090,10 +1179,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G106" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:G106"/>
-  <sortState ref="A2:G108">
-    <sortCondition ref="D1:D108"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G120" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G120"/>
+  <sortState ref="A2:G124">
+    <sortCondition ref="D1:D124"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -1371,7 +1460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1380,7 +1469,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="51.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
@@ -1388,25 +1477,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1414,19 +1503,19 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1434,19 +1523,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1466,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1486,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1494,19 +1583,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E6" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1514,19 +1603,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>338</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>339</v>
       </c>
       <c r="E7" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1534,19 +1623,19 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>262</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>286</v>
       </c>
       <c r="F8" t="s">
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1554,19 +1643,19 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1574,19 +1663,19 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1594,19 +1683,19 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1614,19 +1703,19 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1634,36 +1723,39 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
       <c r="D14" t="s">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>296</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1671,19 +1763,19 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>312</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>287</v>
       </c>
       <c r="F15" t="s">
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1691,19 +1783,19 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1711,36 +1803,39 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
       <c r="D18" t="s">
-        <v>244</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>297</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1748,19 +1843,19 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>313</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c r="F19" t="s">
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1768,19 +1863,19 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1788,19 +1883,19 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1808,19 +1903,19 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1828,19 +1923,19 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1848,19 +1943,19 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1868,19 +1963,19 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>245</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>298</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1888,19 +1983,19 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>263</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>289</v>
       </c>
       <c r="F26" t="s">
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1908,19 +2003,19 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>273</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>246</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>299</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1928,19 +2023,19 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>264</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c r="F28" t="s">
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1948,19 +2043,19 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F29" t="s">
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1968,19 +2063,19 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>274</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>247</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>300</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1988,19 +2083,19 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D31" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E31" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F31" t="s">
         <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2008,19 +2103,19 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D32" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E32" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F32" t="s">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2028,19 +2123,19 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>267</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>240</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>293</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2048,19 +2143,19 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
         <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2068,59 +2163,53 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
-      <c r="B36" t="s">
-        <v>71</v>
-      </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>316</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>317</v>
       </c>
       <c r="F36" t="s">
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>318</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>319</v>
       </c>
       <c r="F37" t="s">
         <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2128,19 +2217,19 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>250</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>303</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2148,19 +2237,19 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
         <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2168,19 +2257,19 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
         <v>3</v>
       </c>
       <c r="G40" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2188,19 +2277,19 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="D41" t="s">
-        <v>251</v>
+        <v>342</v>
       </c>
       <c r="E41" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="F41" t="s">
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2208,19 +2297,19 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>241</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>294</v>
       </c>
       <c r="F42" t="s">
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2228,19 +2317,19 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
         <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2248,19 +2337,19 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s">
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2268,19 +2357,19 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D45" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E45" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F45" t="s">
         <v>3</v>
       </c>
       <c r="G45" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2288,19 +2377,19 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>280</v>
+        <v>83</v>
       </c>
       <c r="D46" t="s">
-        <v>253</v>
+        <v>84</v>
       </c>
       <c r="E46" t="s">
-        <v>306</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2308,19 +2397,19 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E47" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2328,19 +2417,19 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>270</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>296</v>
       </c>
       <c r="F48" t="s">
         <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2348,19 +2437,19 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D49" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E49" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F49" t="s">
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2368,19 +2457,19 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F50" t="s">
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2388,19 +2477,19 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F51" t="s">
         <v>3</v>
       </c>
       <c r="G51" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2408,39 +2497,36 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>272</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>298</v>
       </c>
       <c r="F52" t="s">
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
-      <c r="B53" t="s">
-        <v>107</v>
-      </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c r="F53" t="s">
         <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2448,19 +2534,19 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s">
         <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2468,19 +2554,19 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D55" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E55" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F55" t="s">
         <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2488,19 +2574,19 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D56" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E56" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F56" t="s">
         <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2508,19 +2594,19 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>344</v>
       </c>
       <c r="D57" t="s">
-        <v>120</v>
+        <v>345</v>
       </c>
       <c r="E57" t="s">
-        <v>121</v>
+        <v>346</v>
       </c>
       <c r="F57" t="s">
         <v>3</v>
       </c>
       <c r="G57" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2528,39 +2614,36 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D58" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F58" t="s">
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
-      <c r="B59" t="s">
-        <v>125</v>
-      </c>
       <c r="D59" t="s">
-        <v>126</v>
+        <v>322</v>
       </c>
       <c r="E59" t="s">
-        <v>127</v>
+        <v>323</v>
       </c>
       <c r="F59" t="s">
         <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2568,19 +2651,19 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2588,19 +2671,19 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E61" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F61" t="s">
         <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2608,19 +2691,19 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D62" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F62" t="s">
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2628,19 +2711,19 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D63" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E63" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="F63" t="s">
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2648,19 +2731,19 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="D64" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="E64" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2668,19 +2751,19 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D65" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E65" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
         <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2688,19 +2771,19 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="D66" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2708,19 +2791,19 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="D67" t="s">
-        <v>255</v>
+        <v>348</v>
       </c>
       <c r="E67" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="F67" t="s">
         <v>3</v>
       </c>
       <c r="G67" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2728,19 +2811,19 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D68" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E68" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
         <v>3</v>
       </c>
       <c r="G68" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2748,39 +2831,36 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="D69" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E69" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
         <v>3</v>
       </c>
       <c r="G69" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>4</v>
       </c>
-      <c r="B70" t="s">
-        <v>155</v>
-      </c>
       <c r="D70" t="s">
-        <v>156</v>
+        <v>324</v>
       </c>
       <c r="E70" t="s">
-        <v>157</v>
+        <v>325</v>
       </c>
       <c r="F70" t="s">
         <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2788,19 +2868,19 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D71" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="E71" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
         <v>3</v>
       </c>
       <c r="G71" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2808,19 +2888,19 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="D72" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="E72" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
         <v>3</v>
       </c>
       <c r="G72" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2828,19 +2908,19 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>273</v>
       </c>
       <c r="D73" t="s">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="E73" t="s">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c r="F73" t="s">
         <v>3</v>
       </c>
       <c r="G73" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2848,19 +2928,19 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>283</v>
+        <v>140</v>
       </c>
       <c r="D74" t="s">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="E74" t="s">
-        <v>309</v>
+        <v>142</v>
       </c>
       <c r="F74" t="s">
         <v>3</v>
       </c>
       <c r="G74" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2868,19 +2948,19 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>284</v>
+        <v>143</v>
       </c>
       <c r="D75" t="s">
-        <v>257</v>
+        <v>144</v>
       </c>
       <c r="E75" t="s">
-        <v>310</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
         <v>3</v>
       </c>
       <c r="G75" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2888,19 +2968,19 @@
         <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D76" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="E76" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="F76" t="s">
         <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2908,19 +2988,19 @@
         <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D77" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E77" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
         <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2928,16 +3008,16 @@
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="E78" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="F78" t="s">
         <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2945,19 +3025,19 @@
         <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D79" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="E79" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="F79" t="s">
         <v>3</v>
       </c>
       <c r="G79" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2965,39 +3045,36 @@
         <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D80" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E80" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
         <v>3</v>
       </c>
       <c r="G80" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4</v>
       </c>
-      <c r="B81" t="s">
-        <v>179</v>
-      </c>
       <c r="D81" t="s">
-        <v>180</v>
+        <v>328</v>
       </c>
       <c r="E81" t="s">
-        <v>181</v>
+        <v>329</v>
       </c>
       <c r="F81" t="s">
         <v>3</v>
       </c>
       <c r="G81" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3005,19 +3082,19 @@
         <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="D82" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="E82" t="s">
-        <v>184</v>
+        <v>300</v>
       </c>
       <c r="F82" t="s">
         <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3025,19 +3102,19 @@
         <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="D83" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="E83" t="s">
-        <v>187</v>
+        <v>301</v>
       </c>
       <c r="F83" t="s">
         <v>3</v>
       </c>
       <c r="G83" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3045,19 +3122,19 @@
         <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="D84" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="E84" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F84" t="s">
         <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3065,19 +3142,19 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="D85" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="E85" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
         <v>3</v>
       </c>
       <c r="G85" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3085,19 +3162,19 @@
         <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="D86" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E86" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F86" t="s">
         <v>3</v>
       </c>
       <c r="G86" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3105,19 +3182,19 @@
         <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="D87" t="s">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="E87" t="s">
-        <v>313</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
         <v>3</v>
       </c>
       <c r="G87" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3125,19 +3202,19 @@
         <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>287</v>
+        <v>167</v>
       </c>
       <c r="D88" t="s">
-        <v>261</v>
+        <v>168</v>
       </c>
       <c r="E88" t="s">
-        <v>314</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
         <v>3</v>
       </c>
       <c r="G88" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3145,19 +3222,19 @@
         <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="D89" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="E89" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
         <v>3</v>
       </c>
       <c r="G89" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3165,19 +3242,19 @@
         <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="D90" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E90" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
         <v>3</v>
       </c>
       <c r="G90" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3185,19 +3262,19 @@
         <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>288</v>
+        <v>176</v>
       </c>
       <c r="D91" t="s">
-        <v>262</v>
+        <v>177</v>
       </c>
       <c r="E91" t="s">
-        <v>315</v>
+        <v>178</v>
       </c>
       <c r="F91" t="s">
         <v>3</v>
       </c>
       <c r="G91" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3205,56 +3282,56 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="D92" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E92" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
         <v>3</v>
       </c>
       <c r="G92" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>4</v>
       </c>
+      <c r="B93" t="s">
+        <v>182</v>
+      </c>
       <c r="D93" t="s">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="E93" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="F93" t="s">
         <v>3</v>
       </c>
       <c r="G93" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>4</v>
       </c>
-      <c r="B94" t="s">
-        <v>289</v>
-      </c>
       <c r="D94" t="s">
-        <v>264</v>
+        <v>330</v>
       </c>
       <c r="E94" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="F94" t="s">
         <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3262,19 +3339,19 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="D95" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="E95" t="s">
-        <v>205</v>
+        <v>303</v>
       </c>
       <c r="F95" t="s">
         <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3282,19 +3359,19 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="D96" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="E96" t="s">
-        <v>208</v>
+        <v>304</v>
       </c>
       <c r="F96" t="s">
         <v>3</v>
       </c>
       <c r="G96" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3302,19 +3379,19 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D97" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="E97" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F97" t="s">
         <v>3</v>
       </c>
       <c r="G97" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3322,19 +3399,19 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D98" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="E98" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
         <v>3</v>
       </c>
       <c r="G98" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3342,19 +3419,19 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D99" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="E99" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="F99" t="s">
         <v>3</v>
       </c>
       <c r="G99" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3362,19 +3439,19 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="D100" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="E100" t="s">
-        <v>217</v>
+        <v>306</v>
       </c>
       <c r="F100" t="s">
         <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3382,19 +3459,19 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>218</v>
+        <v>350</v>
       </c>
       <c r="D101" t="s">
-        <v>219</v>
+        <v>351</v>
       </c>
       <c r="E101" t="s">
-        <v>220</v>
+        <v>352</v>
       </c>
       <c r="F101" t="s">
         <v>3</v>
       </c>
       <c r="G101" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3402,19 +3479,19 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="D102" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="E102" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
         <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3422,19 +3499,19 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="D103" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E103" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F103" t="s">
         <v>3</v>
       </c>
       <c r="G103" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3442,19 +3519,19 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="D104" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="E104" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="F104" t="s">
         <v>3</v>
       </c>
       <c r="G104" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3462,19 +3539,19 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="D105" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="E105" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="F105" t="s">
         <v>3</v>
       </c>
       <c r="G105" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3482,25 +3559,293 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>292</v>
+        <v>197</v>
       </c>
       <c r="D106" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="E106" t="s">
-        <v>320</v>
+        <v>199</v>
       </c>
       <c r="F106" t="s">
         <v>3</v>
       </c>
       <c r="G106" t="s">
-        <v>239</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>281</v>
+      </c>
+      <c r="D107" t="s">
+        <v>256</v>
+      </c>
+      <c r="E107" t="s">
+        <v>309</v>
+      </c>
+      <c r="F107" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>200</v>
+      </c>
+      <c r="D108" t="s">
+        <v>201</v>
+      </c>
+      <c r="E108" t="s">
+        <v>202</v>
+      </c>
+      <c r="F108" t="s">
+        <v>3</v>
+      </c>
+      <c r="G108" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>203</v>
+      </c>
+      <c r="D109" t="s">
+        <v>204</v>
+      </c>
+      <c r="E109" t="s">
+        <v>205</v>
+      </c>
+      <c r="F109" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>206</v>
+      </c>
+      <c r="D110" t="s">
+        <v>207</v>
+      </c>
+      <c r="E110" t="s">
+        <v>208</v>
+      </c>
+      <c r="F110" t="s">
+        <v>3</v>
+      </c>
+      <c r="G110" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" t="s">
+        <v>332</v>
+      </c>
+      <c r="E111" t="s">
+        <v>333</v>
+      </c>
+      <c r="F111" t="s">
+        <v>3</v>
+      </c>
+      <c r="G111" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>209</v>
+      </c>
+      <c r="D112" t="s">
+        <v>210</v>
+      </c>
+      <c r="E112" t="s">
+        <v>211</v>
+      </c>
+      <c r="F112" t="s">
+        <v>3</v>
+      </c>
+      <c r="G112" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>212</v>
+      </c>
+      <c r="D113" t="s">
+        <v>213</v>
+      </c>
+      <c r="E113" t="s">
+        <v>214</v>
+      </c>
+      <c r="F113" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>334</v>
+      </c>
+      <c r="E114" t="s">
+        <v>335</v>
+      </c>
+      <c r="F114" t="s">
+        <v>3</v>
+      </c>
+      <c r="G114" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>282</v>
+      </c>
+      <c r="D115" t="s">
+        <v>257</v>
+      </c>
+      <c r="E115" t="s">
+        <v>310</v>
+      </c>
+      <c r="F115" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>336</v>
+      </c>
+      <c r="E116" t="s">
+        <v>337</v>
+      </c>
+      <c r="F116" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>218</v>
+      </c>
+      <c r="D117" t="s">
+        <v>219</v>
+      </c>
+      <c r="E117" t="s">
+        <v>220</v>
+      </c>
+      <c r="F117" t="s">
+        <v>3</v>
+      </c>
+      <c r="G117" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>215</v>
+      </c>
+      <c r="D118" t="s">
+        <v>216</v>
+      </c>
+      <c r="E118" t="s">
+        <v>217</v>
+      </c>
+      <c r="F118" t="s">
+        <v>3</v>
+      </c>
+      <c r="G118" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>353</v>
+      </c>
+      <c r="D119" t="s">
+        <v>354</v>
+      </c>
+      <c r="E119" t="s">
+        <v>355</v>
+      </c>
+      <c r="F119" t="s">
+        <v>3</v>
+      </c>
+      <c r="G119" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>283</v>
+      </c>
+      <c r="D120" t="s">
+        <v>258</v>
+      </c>
+      <c r="E120" t="s">
+        <v>311</v>
+      </c>
+      <c r="F120" t="s">
+        <v>3</v>
+      </c>
+      <c r="G120" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Bibsam_tidskriftslistor/scifree_data_frontiers_discount.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_frontiers_discount.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_6B80036329C3C47C5835718442856A3B73AA895A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EEDDCE2-4164-48B6-B28C-D279817DCBF4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="523">
   <si>
     <t xml:space="preserve">1663-4365  </t>
   </si>
@@ -1087,12 +1088,513 @@
   </si>
   <si>
     <t>https://www.frontiersin.org/journals/virology</t>
+  </si>
+  <si>
+    <t>2813-2831</t>
+  </si>
+  <si>
+    <t>Frontiers in Aerospace Engineering</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/aerospace-engineering</t>
+  </si>
+  <si>
+    <t>2813-6780</t>
+  </si>
+  <si>
+    <t>Frontiers in Amphibian and Reptile Science</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/amphibian-and-reptile-science</t>
+  </si>
+  <si>
+    <t>2813-480X</t>
+  </si>
+  <si>
+    <t>Frontiers in Anesthesiology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/anesthesiology</t>
+  </si>
+  <si>
+    <t>2813-4680</t>
+  </si>
+  <si>
+    <t>Frontiers in Antennas and Propagation</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/antennas-and-propagation</t>
+  </si>
+  <si>
+    <t>2813-2467</t>
+  </si>
+  <si>
+    <t>Frontiers in Antibiotics</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/antibiotics</t>
+  </si>
+  <si>
+    <t>2813-5334</t>
+  </si>
+  <si>
+    <t>Frontiers in Aquaculture</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/aquaculture</t>
+  </si>
+  <si>
+    <t>2813-5083</t>
+  </si>
+  <si>
+    <t>Frontiers in Arachnid Science</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/arachnid-science</t>
+  </si>
+  <si>
+    <t>2813-5911</t>
+  </si>
+  <si>
+    <t>Frontiers in Bee Science</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/bee-science</t>
+  </si>
+  <si>
+    <t>2813-5296</t>
+  </si>
+  <si>
+    <t>Frontiers in Behavioral Economics</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/behavioral-economics</t>
+  </si>
+  <si>
+    <t>2813-3749</t>
+  </si>
+  <si>
+    <t>Frontiers in Biomaterials Science</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/biomaterials-science</t>
+  </si>
+  <si>
+    <t>2813-3870</t>
+  </si>
+  <si>
+    <t>Frontiers in Bird Science</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/bird-science</t>
+  </si>
+  <si>
+    <t>2813-4192</t>
+  </si>
+  <si>
+    <t>Frontiers in Carbon</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/carbon</t>
+  </si>
+  <si>
+    <t>2813-5563</t>
+  </si>
+  <si>
+    <t>Frontiers in Cell Death</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/cell-death</t>
+  </si>
+  <si>
+    <t>2813-530X</t>
+  </si>
+  <si>
+    <t>Frontiers in Chemical Biology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/chemical-biology</t>
+  </si>
+  <si>
+    <t>2813-4540</t>
+  </si>
+  <si>
+    <t>Frontiers in Child and Adolescent Psychiatry</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/child-and-adolescent-psychiatry</t>
+  </si>
+  <si>
+    <t>2813-4532</t>
+  </si>
+  <si>
+    <t>Frontiers in Cognition</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/cognition</t>
+  </si>
+  <si>
+    <t>2813-3919</t>
+  </si>
+  <si>
+    <t>Frontiers in Dementia</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/dementia</t>
+  </si>
+  <si>
+    <t>Frontiers in Disaster and Emergency Medicine</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/disaster-and-emergency-medicine</t>
+  </si>
+  <si>
+    <t>2674-0850</t>
+  </si>
+  <si>
+    <t>2674-0338</t>
+  </si>
+  <si>
+    <t>2674-0869</t>
+  </si>
+  <si>
+    <t>Frontiers in Drug Safety and Regulation</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/drug-safety-and-regulation</t>
+  </si>
+  <si>
+    <t>2813-432X</t>
+  </si>
+  <si>
+    <t>Frontiers in Environmental Archaeology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/environmental-archaeology</t>
+  </si>
+  <si>
+    <t>2813-2823</t>
+  </si>
+  <si>
+    <t>Frontiers in Environmental Economics</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/environmental-economics</t>
+  </si>
+  <si>
+    <t>2813-5067</t>
+  </si>
+  <si>
+    <t>Frontiers in Environmental Engineering</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/environmental-health</t>
+  </si>
+  <si>
+    <t>2813-558X</t>
+  </si>
+  <si>
+    <t>Frontiers in Environmental Health</t>
+  </si>
+  <si>
+    <t>2674-1199</t>
+  </si>
+  <si>
+    <t>Frontiers in Epidemiology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/epidemiology</t>
+  </si>
+  <si>
+    <t>2813-5091</t>
+  </si>
+  <si>
+    <t>Frontiers in Ethology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/ethology</t>
+  </si>
+  <si>
+    <t>2674-1121</t>
+  </si>
+  <si>
+    <t>Frontiers in Food Science and Technology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/food-science-and-technology</t>
+  </si>
+  <si>
+    <t>2813-6217</t>
+  </si>
+  <si>
+    <t>Frontiers in Fuels</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/fuels</t>
+  </si>
+  <si>
+    <t>2813-1169</t>
+  </si>
+  <si>
+    <t>Frontiers in Gastroenterology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/gastroenterology</t>
+  </si>
+  <si>
+    <t>2813-5962</t>
+  </si>
+  <si>
+    <t>Frontiers in Geochemistry</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/geochemistry</t>
+  </si>
+  <si>
+    <t>2813-0146</t>
+  </si>
+  <si>
+    <t>Frontiers in Hematology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/hematology</t>
+  </si>
+  <si>
+    <t>Frontiers in High Performance Computing</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/high-performance-computing</t>
+  </si>
+  <si>
+    <t>2813-3595</t>
+  </si>
+  <si>
+    <t>Frontiers in Horticulture</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/horticulture</t>
+  </si>
+  <si>
+    <t>2813-3315</t>
+  </si>
+  <si>
+    <t>Frontiers in Imaging</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/imaging</t>
+  </si>
+  <si>
+    <t>Frontiers in Lab on a Chip Technologies</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/lab-on-a-chip-technologies</t>
+  </si>
+  <si>
+    <t>2813-4605</t>
+  </si>
+  <si>
+    <t>Frontiers in Language Sciences</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/language-sciences</t>
+  </si>
+  <si>
+    <t>Frontiers in Lupus</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/lupus</t>
+  </si>
+  <si>
+    <t>Frontiers in Malaria</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/malaria</t>
+  </si>
+  <si>
+    <t>2813-4699</t>
+  </si>
+  <si>
+    <t>Frontiers in Mammal Science</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/mammal-science</t>
+  </si>
+  <si>
+    <t>2813-0359</t>
+  </si>
+  <si>
+    <t>2813-1010</t>
+  </si>
+  <si>
+    <t>Frontiers in Membrane Science and Technology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/membrane-science-and-technology</t>
+  </si>
+  <si>
+    <t>Frontiers in Metals and Alloys</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/metals-and-alloys</t>
+  </si>
+  <si>
+    <t>2813-4338</t>
+  </si>
+  <si>
+    <t>Frontiers in Microbiomes</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/microbiomes</t>
+  </si>
+  <si>
+    <t>Frontiers in Natural Products</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/natural-products/</t>
+  </si>
+  <si>
+    <t>2813-0626</t>
+  </si>
+  <si>
+    <t>Frontiers in Nephrology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/nephrology</t>
+  </si>
+  <si>
+    <t>2674-0109</t>
+  </si>
+  <si>
+    <t>2813-1193</t>
+  </si>
+  <si>
+    <t>Frontiers in Neuroimaging</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/neuroimaging</t>
+  </si>
+  <si>
+    <t>2813-3412</t>
+  </si>
+  <si>
+    <t>Frontiers in Nuclear Engineering</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/nuclear-engineering</t>
+  </si>
+  <si>
+    <t>2673-8880</t>
+  </si>
+  <si>
+    <t>2674-0826</t>
+  </si>
+  <si>
+    <t>2813-2424</t>
+  </si>
+  <si>
+    <t>Frontiers in Parasitology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/parasitology</t>
+  </si>
+  <si>
+    <t>2813-2181</t>
+  </si>
+  <si>
+    <t>Frontiers in Quantum Science and Technology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/quantum-science-and-technology</t>
+  </si>
+  <si>
+    <t>2673-8740</t>
+  </si>
+  <si>
+    <t>2813-2890</t>
+  </si>
+  <si>
+    <t>Frontiers in Sleep</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/sleep</t>
+  </si>
+  <si>
+    <t>Frontiers in Smart Grids</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/smart-grids</t>
+  </si>
+  <si>
+    <t>2813-0499</t>
+  </si>
+  <si>
+    <t>Frontiers in Soft Matter</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/soft-matter</t>
+  </si>
+  <si>
+    <t>2813-3056</t>
+  </si>
+  <si>
+    <t>Frontiers in Stroke</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/stroke</t>
+  </si>
+  <si>
+    <t>2813-4982</t>
+  </si>
+  <si>
+    <t>Frontiers in Sustainable Energy Policy</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/sustainable-energy-policy</t>
+  </si>
+  <si>
+    <t>2813-3005</t>
+  </si>
+  <si>
+    <t>Frontiers in Sustainable Resource Management</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/sustainable-resource-management</t>
+  </si>
+  <si>
+    <t>Frontiers in Sustainable Tourism</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/sustainable-tourism</t>
+  </si>
+  <si>
+    <t>2674-0702</t>
+  </si>
+  <si>
+    <t>2813-3110</t>
+  </si>
+  <si>
+    <t>Frontiers in the Internet of Things</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/the-internet-of-things</t>
+  </si>
+  <si>
+    <t>2813-0456</t>
+  </si>
+  <si>
+    <t>Frontiers in Thermal Engineering</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/thermal-engineering</t>
+  </si>
+  <si>
+    <t>2673-9828</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1137,17 +1639,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1179,19 +1671,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G120" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:G120"/>
-  <sortState ref="A2:G124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G176" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G176" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G124">
     <sortCondition ref="D1:D124"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Imprint"/>
-    <tableColumn id="2" name="ISSN Electronic"/>
-    <tableColumn id="3" name="ISSN Print"/>
-    <tableColumn id="4" name="Journal Name"/>
-    <tableColumn id="5" name="JournalURL"/>
-    <tableColumn id="6" name="Publishing model"/>
-    <tableColumn id="7" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1459,10 +1951,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1523,13 +2017,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>356</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>357</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>358</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1543,13 +2037,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>284</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -1563,13 +2057,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
@@ -1583,13 +2077,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>232</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>285</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
         <v>3</v>
@@ -1603,13 +2097,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="D7" t="s">
-        <v>339</v>
+        <v>232</v>
       </c>
       <c r="E7" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
@@ -1623,13 +2117,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>359</v>
       </c>
       <c r="D8" t="s">
-        <v>233</v>
+        <v>360</v>
       </c>
       <c r="E8" t="s">
-        <v>286</v>
+        <v>361</v>
       </c>
       <c r="F8" t="s">
         <v>3</v>
@@ -1643,13 +2137,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>338</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>339</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
@@ -1663,13 +2157,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>362</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>363</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>364</v>
       </c>
       <c r="F10" t="s">
         <v>3</v>
@@ -1683,13 +2177,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
@@ -1703,13 +2197,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>365</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>367</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
@@ -1723,13 +2217,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>368</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>369</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>370</v>
       </c>
       <c r="F13" t="s">
         <v>3</v>
@@ -1743,13 +2237,13 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
         <v>3</v>
@@ -1763,13 +2257,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="D15" t="s">
-        <v>234</v>
+        <v>372</v>
       </c>
       <c r="E15" t="s">
-        <v>287</v>
+        <v>373</v>
       </c>
       <c r="F15" t="s">
         <v>3</v>
@@ -1783,13 +2277,13 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>374</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>375</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>376</v>
       </c>
       <c r="F16" t="s">
         <v>3</v>
@@ -1803,13 +2297,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
         <v>3</v>
@@ -1823,13 +2317,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
         <v>3</v>
@@ -1843,13 +2337,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>377</v>
       </c>
       <c r="D19" t="s">
-        <v>235</v>
+        <v>378</v>
       </c>
       <c r="E19" t="s">
-        <v>288</v>
+        <v>379</v>
       </c>
       <c r="F19" t="s">
         <v>3</v>
@@ -1863,13 +2357,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>380</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>381</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>382</v>
       </c>
       <c r="F20" t="s">
         <v>3</v>
@@ -1883,13 +2377,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>
@@ -1903,13 +2397,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
         <v>3</v>
@@ -1923,13 +2417,13 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
         <v>3</v>
@@ -1943,13 +2437,13 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>312</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>287</v>
       </c>
       <c r="F24" t="s">
         <v>3</v>
@@ -1963,13 +2457,13 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>383</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>384</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>385</v>
       </c>
       <c r="F25" t="s">
         <v>3</v>
@@ -1983,13 +2477,13 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
+        <v>386</v>
       </c>
       <c r="D26" t="s">
-        <v>236</v>
+        <v>387</v>
       </c>
       <c r="E26" t="s">
-        <v>289</v>
+        <v>388</v>
       </c>
       <c r="F26" t="s">
         <v>3</v>
@@ -2003,13 +2497,13 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s">
         <v>3</v>
@@ -2023,13 +2517,13 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>264</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="E28" t="s">
-        <v>290</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
         <v>3</v>
@@ -2043,13 +2537,13 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>389</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>390</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>391</v>
       </c>
       <c r="F29" t="s">
         <v>3</v>
@@ -2063,13 +2557,13 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
         <v>3</v>
@@ -2083,13 +2577,13 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="D31" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E31" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F31" t="s">
         <v>3</v>
@@ -2103,13 +2597,13 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>266</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>292</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
         <v>3</v>
@@ -2123,13 +2617,13 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>267</v>
+        <v>392</v>
       </c>
       <c r="D33" t="s">
-        <v>240</v>
+        <v>393</v>
       </c>
       <c r="E33" t="s">
-        <v>293</v>
+        <v>394</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
@@ -2143,13 +2637,13 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s">
         <v>3</v>
@@ -2163,13 +2657,13 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
         <v>3</v>
@@ -2182,11 +2676,14 @@
       <c r="A36" t="s">
         <v>4</v>
       </c>
+      <c r="B36" t="s">
+        <v>395</v>
+      </c>
       <c r="D36" t="s">
-        <v>316</v>
+        <v>396</v>
       </c>
       <c r="E36" t="s">
-        <v>317</v>
+        <v>397</v>
       </c>
       <c r="F36" t="s">
         <v>3</v>
@@ -2199,11 +2696,14 @@
       <c r="A37" t="s">
         <v>4</v>
       </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
       <c r="D37" t="s">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>319</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
         <v>3</v>
@@ -2217,13 +2717,13 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
         <v>3</v>
@@ -2237,13 +2737,13 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>398</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>399</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>400</v>
       </c>
       <c r="F39" t="s">
         <v>3</v>
@@ -2257,13 +2757,13 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F40" t="s">
         <v>3</v>
@@ -2277,13 +2777,13 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>341</v>
+        <v>263</v>
       </c>
       <c r="D41" t="s">
-        <v>342</v>
+        <v>236</v>
       </c>
       <c r="E41" t="s">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="F41" t="s">
         <v>3</v>
@@ -2297,13 +2797,13 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>268</v>
+        <v>401</v>
       </c>
       <c r="D42" t="s">
-        <v>241</v>
+        <v>402</v>
       </c>
       <c r="E42" t="s">
-        <v>294</v>
+        <v>403</v>
       </c>
       <c r="F42" t="s">
         <v>3</v>
@@ -2317,13 +2817,13 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F43" t="s">
         <v>3</v>
@@ -2337,13 +2837,13 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
+        <v>290</v>
       </c>
       <c r="F44" t="s">
         <v>3</v>
@@ -2357,13 +2857,13 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>269</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>242</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
-        <v>295</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
         <v>3</v>
@@ -2377,13 +2877,13 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="F46" t="s">
         <v>3</v>
@@ -2397,13 +2897,13 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>238</v>
       </c>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>291</v>
       </c>
       <c r="F47" t="s">
         <v>3</v>
@@ -2417,13 +2917,13 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D48" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E48" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F48" t="s">
         <v>3</v>
@@ -2437,13 +2937,13 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>271</v>
+        <v>404</v>
       </c>
       <c r="D49" t="s">
-        <v>244</v>
+        <v>405</v>
       </c>
       <c r="E49" t="s">
-        <v>297</v>
+        <v>406</v>
       </c>
       <c r="F49" t="s">
         <v>3</v>
@@ -2457,13 +2957,13 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>89</v>
+        <v>267</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>293</v>
       </c>
       <c r="F50" t="s">
         <v>3</v>
@@ -2477,13 +2977,13 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="F51" t="s">
         <v>3</v>
@@ -2497,13 +2997,13 @@
         <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>272</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>298</v>
+        <v>67</v>
       </c>
       <c r="F52" t="s">
         <v>3</v>
@@ -2517,10 +3017,10 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="E53" t="s">
-        <v>321</v>
+        <v>408</v>
       </c>
       <c r="F53" t="s">
         <v>3</v>
@@ -2534,13 +3034,13 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>409</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>316</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>317</v>
       </c>
       <c r="F54" t="s">
         <v>3</v>
@@ -2554,13 +3054,13 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>410</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
+        <v>318</v>
       </c>
       <c r="E55" t="s">
-        <v>100</v>
+        <v>319</v>
       </c>
       <c r="F55" t="s">
         <v>3</v>
@@ -2574,13 +3074,13 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>411</v>
       </c>
       <c r="D56" t="s">
-        <v>102</v>
+        <v>412</v>
       </c>
       <c r="E56" t="s">
-        <v>103</v>
+        <v>413</v>
       </c>
       <c r="F56" t="s">
         <v>3</v>
@@ -2594,13 +3094,13 @@
         <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>344</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
-        <v>345</v>
+        <v>69</v>
       </c>
       <c r="E57" t="s">
-        <v>346</v>
+        <v>70</v>
       </c>
       <c r="F57" t="s">
         <v>3</v>
@@ -2614,13 +3114,13 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F58" t="s">
         <v>3</v>
@@ -2633,11 +3133,14 @@
       <c r="A59" t="s">
         <v>4</v>
       </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
       <c r="D59" t="s">
-        <v>322</v>
+        <v>75</v>
       </c>
       <c r="E59" t="s">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="F59" t="s">
         <v>3</v>
@@ -2651,13 +3154,13 @@
         <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>341</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>342</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>343</v>
       </c>
       <c r="F60" t="s">
         <v>3</v>
@@ -2671,13 +3174,13 @@
         <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="E61" t="s">
-        <v>112</v>
+        <v>294</v>
       </c>
       <c r="F61" t="s">
         <v>3</v>
@@ -2691,13 +3194,13 @@
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="F62" t="s">
         <v>3</v>
@@ -2711,13 +3214,13 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="D63" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="E63" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="F63" t="s">
         <v>3</v>
@@ -2731,13 +3234,13 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>414</v>
       </c>
       <c r="D64" t="s">
-        <v>120</v>
+        <v>415</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>416</v>
       </c>
       <c r="F64" t="s">
         <v>3</v>
@@ -2751,13 +3254,13 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="D65" t="s">
-        <v>123</v>
+        <v>242</v>
       </c>
       <c r="E65" t="s">
-        <v>124</v>
+        <v>295</v>
       </c>
       <c r="F65" t="s">
         <v>3</v>
@@ -2771,13 +3274,13 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>417</v>
       </c>
       <c r="D66" t="s">
-        <v>126</v>
+        <v>418</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>419</v>
       </c>
       <c r="F66" t="s">
         <v>3</v>
@@ -2791,13 +3294,13 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>347</v>
+        <v>420</v>
       </c>
       <c r="D67" t="s">
-        <v>348</v>
+        <v>421</v>
       </c>
       <c r="E67" t="s">
-        <v>349</v>
+        <v>422</v>
       </c>
       <c r="F67" t="s">
         <v>3</v>
@@ -2811,13 +3314,13 @@
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>423</v>
       </c>
       <c r="D68" t="s">
-        <v>129</v>
+        <v>424</v>
       </c>
       <c r="E68" t="s">
-        <v>130</v>
+        <v>422</v>
       </c>
       <c r="F68" t="s">
         <v>3</v>
@@ -2831,13 +3334,13 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="D69" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="F69" t="s">
         <v>3</v>
@@ -2850,11 +3353,14 @@
       <c r="A70" t="s">
         <v>4</v>
       </c>
+      <c r="B70" t="s">
+        <v>425</v>
+      </c>
       <c r="D70" t="s">
-        <v>324</v>
+        <v>426</v>
       </c>
       <c r="E70" t="s">
-        <v>325</v>
+        <v>427</v>
       </c>
       <c r="F70" t="s">
         <v>3</v>
@@ -2868,13 +3374,13 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>428</v>
       </c>
       <c r="D71" t="s">
-        <v>135</v>
+        <v>429</v>
       </c>
       <c r="E71" t="s">
-        <v>136</v>
+        <v>430</v>
       </c>
       <c r="F71" t="s">
         <v>3</v>
@@ -2888,13 +3394,13 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>431</v>
       </c>
       <c r="D72" t="s">
-        <v>138</v>
+        <v>432</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>433</v>
       </c>
       <c r="F72" t="s">
         <v>3</v>
@@ -2908,13 +3414,13 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>273</v>
+        <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>246</v>
+        <v>87</v>
       </c>
       <c r="E73" t="s">
-        <v>299</v>
+        <v>88</v>
       </c>
       <c r="F73" t="s">
         <v>3</v>
@@ -2928,13 +3434,13 @@
         <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>434</v>
       </c>
       <c r="D74" t="s">
-        <v>141</v>
+        <v>435</v>
       </c>
       <c r="E74" t="s">
-        <v>142</v>
+        <v>436</v>
       </c>
       <c r="F74" t="s">
         <v>3</v>
@@ -2948,13 +3454,13 @@
         <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>270</v>
       </c>
       <c r="D75" t="s">
-        <v>144</v>
+        <v>243</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>296</v>
       </c>
       <c r="F75" t="s">
         <v>3</v>
@@ -2968,13 +3474,13 @@
         <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>271</v>
       </c>
       <c r="D76" t="s">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c r="E76" t="s">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="F76" t="s">
         <v>3</v>
@@ -2988,13 +3494,13 @@
         <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>437</v>
       </c>
       <c r="D77" t="s">
-        <v>150</v>
+        <v>438</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>439</v>
       </c>
       <c r="F77" t="s">
         <v>3</v>
@@ -3007,11 +3513,14 @@
       <c r="A78" t="s">
         <v>4</v>
       </c>
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
       <c r="D78" t="s">
-        <v>326</v>
+        <v>90</v>
       </c>
       <c r="E78" t="s">
-        <v>327</v>
+        <v>91</v>
       </c>
       <c r="F78" t="s">
         <v>3</v>
@@ -3025,13 +3534,13 @@
         <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>153</v>
+        <v>93</v>
       </c>
       <c r="E79" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="F79" t="s">
         <v>3</v>
@@ -3045,13 +3554,13 @@
         <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>440</v>
       </c>
       <c r="D80" t="s">
-        <v>156</v>
+        <v>441</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>442</v>
       </c>
       <c r="F80" t="s">
         <v>3</v>
@@ -3064,11 +3573,14 @@
       <c r="A81" t="s">
         <v>4</v>
       </c>
+      <c r="B81" t="s">
+        <v>272</v>
+      </c>
       <c r="D81" t="s">
-        <v>328</v>
+        <v>245</v>
       </c>
       <c r="E81" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="F81" t="s">
         <v>3</v>
@@ -3082,13 +3594,13 @@
         <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>274</v>
+        <v>443</v>
       </c>
       <c r="D82" t="s">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="E82" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="F82" t="s">
         <v>3</v>
@@ -3101,14 +3613,11 @@
       <c r="A83" t="s">
         <v>4</v>
       </c>
-      <c r="B83" t="s">
-        <v>275</v>
-      </c>
       <c r="D83" t="s">
-        <v>248</v>
+        <v>444</v>
       </c>
       <c r="E83" t="s">
-        <v>301</v>
+        <v>445</v>
       </c>
       <c r="F83" t="s">
         <v>3</v>
@@ -3121,14 +3630,11 @@
       <c r="A84" t="s">
         <v>4</v>
       </c>
-      <c r="B84" t="s">
-        <v>158</v>
-      </c>
       <c r="D84" t="s">
-        <v>159</v>
+        <v>446</v>
       </c>
       <c r="E84" t="s">
-        <v>160</v>
+        <v>447</v>
       </c>
       <c r="F84" t="s">
         <v>3</v>
@@ -3142,13 +3648,13 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>161</v>
+        <v>448</v>
       </c>
       <c r="D85" t="s">
-        <v>162</v>
+        <v>449</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>450</v>
       </c>
       <c r="F85" t="s">
         <v>3</v>
@@ -3162,13 +3668,13 @@
         <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>314</v>
+        <v>95</v>
       </c>
       <c r="D86" t="s">
-        <v>249</v>
+        <v>96</v>
       </c>
       <c r="E86" t="s">
-        <v>302</v>
+        <v>97</v>
       </c>
       <c r="F86" t="s">
         <v>3</v>
@@ -3182,13 +3688,13 @@
         <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="D87" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="E87" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="F87" t="s">
         <v>3</v>
@@ -3202,13 +3708,13 @@
         <v>4</v>
       </c>
       <c r="B88" t="s">
-        <v>167</v>
+        <v>451</v>
       </c>
       <c r="D88" t="s">
-        <v>168</v>
+        <v>452</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>453</v>
       </c>
       <c r="F88" t="s">
         <v>3</v>
@@ -3222,13 +3728,13 @@
         <v>4</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="D89" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="E89" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="F89" t="s">
         <v>3</v>
@@ -3242,13 +3748,13 @@
         <v>4</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>344</v>
       </c>
       <c r="D90" t="s">
-        <v>174</v>
+        <v>345</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>346</v>
       </c>
       <c r="F90" t="s">
         <v>3</v>
@@ -3262,13 +3768,13 @@
         <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="E91" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="F91" t="s">
         <v>3</v>
@@ -3281,14 +3787,11 @@
       <c r="A92" t="s">
         <v>4</v>
       </c>
-      <c r="B92" t="s">
-        <v>179</v>
-      </c>
       <c r="D92" t="s">
-        <v>180</v>
+        <v>454</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>455</v>
       </c>
       <c r="F92" t="s">
         <v>3</v>
@@ -3302,13 +3805,13 @@
         <v>4</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>456</v>
       </c>
       <c r="D93" t="s">
-        <v>183</v>
+        <v>457</v>
       </c>
       <c r="E93" t="s">
-        <v>184</v>
+        <v>458</v>
       </c>
       <c r="F93" t="s">
         <v>3</v>
@@ -3322,10 +3825,10 @@
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>330</v>
+        <v>459</v>
       </c>
       <c r="E94" t="s">
-        <v>331</v>
+        <v>460</v>
       </c>
       <c r="F94" t="s">
         <v>3</v>
@@ -3338,14 +3841,11 @@
       <c r="A95" t="s">
         <v>4</v>
       </c>
-      <c r="B95" t="s">
-        <v>276</v>
-      </c>
       <c r="D95" t="s">
-        <v>250</v>
+        <v>461</v>
       </c>
       <c r="E95" t="s">
-        <v>303</v>
+        <v>462</v>
       </c>
       <c r="F95" t="s">
         <v>3</v>
@@ -3359,13 +3859,13 @@
         <v>4</v>
       </c>
       <c r="B96" t="s">
-        <v>277</v>
+        <v>463</v>
       </c>
       <c r="D96" t="s">
-        <v>251</v>
+        <v>464</v>
       </c>
       <c r="E96" t="s">
-        <v>304</v>
+        <v>465</v>
       </c>
       <c r="F96" t="s">
         <v>3</v>
@@ -3379,13 +3879,13 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>278</v>
+        <v>466</v>
       </c>
       <c r="D97" t="s">
-        <v>252</v>
+        <v>322</v>
       </c>
       <c r="E97" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="F97" t="s">
         <v>3</v>
@@ -3399,13 +3899,13 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="D98" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="F98" t="s">
         <v>3</v>
@@ -3419,13 +3919,13 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="D99" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="E99" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="F99" t="s">
         <v>3</v>
@@ -3439,13 +3939,13 @@
         <v>4</v>
       </c>
       <c r="B100" t="s">
-        <v>279</v>
+        <v>113</v>
       </c>
       <c r="D100" t="s">
-        <v>253</v>
+        <v>114</v>
       </c>
       <c r="E100" t="s">
-        <v>306</v>
+        <v>115</v>
       </c>
       <c r="F100" t="s">
         <v>3</v>
@@ -3459,13 +3959,13 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>350</v>
+        <v>116</v>
       </c>
       <c r="D101" t="s">
-        <v>351</v>
+        <v>117</v>
       </c>
       <c r="E101" t="s">
-        <v>352</v>
+        <v>118</v>
       </c>
       <c r="F101" t="s">
         <v>3</v>
@@ -3479,13 +3979,13 @@
         <v>4</v>
       </c>
       <c r="B102" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="D102" t="s">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="F102" t="s">
         <v>3</v>
@@ -3499,13 +3999,13 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>315</v>
+        <v>467</v>
       </c>
       <c r="D103" t="s">
-        <v>254</v>
+        <v>468</v>
       </c>
       <c r="E103" t="s">
-        <v>307</v>
+        <v>469</v>
       </c>
       <c r="F103" t="s">
         <v>3</v>
@@ -3518,14 +4018,11 @@
       <c r="A104" t="s">
         <v>4</v>
       </c>
-      <c r="B104" t="s">
-        <v>280</v>
-      </c>
       <c r="D104" t="s">
-        <v>255</v>
+        <v>470</v>
       </c>
       <c r="E104" t="s">
-        <v>308</v>
+        <v>471</v>
       </c>
       <c r="F104" t="s">
         <v>3</v>
@@ -3539,13 +4036,13 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="D105" t="s">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="E105" t="s">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="F105" t="s">
         <v>3</v>
@@ -3559,13 +4056,13 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>197</v>
+        <v>472</v>
       </c>
       <c r="D106" t="s">
-        <v>198</v>
+        <v>473</v>
       </c>
       <c r="E106" t="s">
-        <v>199</v>
+        <v>474</v>
       </c>
       <c r="F106" t="s">
         <v>3</v>
@@ -3579,13 +4076,13 @@
         <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>281</v>
+        <v>125</v>
       </c>
       <c r="D107" t="s">
-        <v>256</v>
+        <v>126</v>
       </c>
       <c r="E107" t="s">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="F107" t="s">
         <v>3</v>
@@ -3599,13 +4096,13 @@
         <v>4</v>
       </c>
       <c r="B108" t="s">
-        <v>200</v>
+        <v>347</v>
       </c>
       <c r="D108" t="s">
-        <v>201</v>
+        <v>348</v>
       </c>
       <c r="E108" t="s">
-        <v>202</v>
+        <v>349</v>
       </c>
       <c r="F108" t="s">
         <v>3</v>
@@ -3619,13 +4116,13 @@
         <v>4</v>
       </c>
       <c r="B109" t="s">
-        <v>203</v>
+        <v>128</v>
       </c>
       <c r="D109" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="F109" t="s">
         <v>3</v>
@@ -3639,13 +4136,13 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="D110" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="E110" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="F110" t="s">
         <v>3</v>
@@ -3659,10 +4156,10 @@
         <v>4</v>
       </c>
       <c r="D111" t="s">
-        <v>332</v>
+        <v>475</v>
       </c>
       <c r="E111" t="s">
-        <v>333</v>
+        <v>476</v>
       </c>
       <c r="F111" t="s">
         <v>3</v>
@@ -3676,13 +4173,13 @@
         <v>4</v>
       </c>
       <c r="B112" t="s">
-        <v>209</v>
+        <v>477</v>
       </c>
       <c r="D112" t="s">
-        <v>210</v>
+        <v>478</v>
       </c>
       <c r="E112" t="s">
-        <v>211</v>
+        <v>479</v>
       </c>
       <c r="F112" t="s">
         <v>3</v>
@@ -3696,13 +4193,13 @@
         <v>4</v>
       </c>
       <c r="B113" t="s">
-        <v>212</v>
+        <v>480</v>
       </c>
       <c r="D113" t="s">
-        <v>213</v>
+        <v>324</v>
       </c>
       <c r="E113" t="s">
-        <v>214</v>
+        <v>325</v>
       </c>
       <c r="F113" t="s">
         <v>3</v>
@@ -3715,11 +4212,14 @@
       <c r="A114" t="s">
         <v>4</v>
       </c>
+      <c r="B114" t="s">
+        <v>134</v>
+      </c>
       <c r="D114" t="s">
-        <v>334</v>
+        <v>135</v>
       </c>
       <c r="E114" t="s">
-        <v>335</v>
+        <v>136</v>
       </c>
       <c r="F114" t="s">
         <v>3</v>
@@ -3733,13 +4233,13 @@
         <v>4</v>
       </c>
       <c r="B115" t="s">
-        <v>282</v>
+        <v>137</v>
       </c>
       <c r="D115" t="s">
-        <v>257</v>
+        <v>138</v>
       </c>
       <c r="E115" t="s">
-        <v>310</v>
+        <v>139</v>
       </c>
       <c r="F115" t="s">
         <v>3</v>
@@ -3752,11 +4252,14 @@
       <c r="A116" t="s">
         <v>4</v>
       </c>
+      <c r="B116" t="s">
+        <v>273</v>
+      </c>
       <c r="D116" t="s">
-        <v>336</v>
+        <v>246</v>
       </c>
       <c r="E116" t="s">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="F116" t="s">
         <v>3</v>
@@ -3770,13 +4273,13 @@
         <v>4</v>
       </c>
       <c r="B117" t="s">
-        <v>218</v>
+        <v>481</v>
       </c>
       <c r="D117" t="s">
-        <v>219</v>
+        <v>482</v>
       </c>
       <c r="E117" t="s">
-        <v>220</v>
+        <v>483</v>
       </c>
       <c r="F117" t="s">
         <v>3</v>
@@ -3790,13 +4293,13 @@
         <v>4</v>
       </c>
       <c r="B118" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="D118" t="s">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="E118" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="F118" t="s">
         <v>3</v>
@@ -3810,13 +4313,13 @@
         <v>4</v>
       </c>
       <c r="B119" t="s">
-        <v>353</v>
+        <v>143</v>
       </c>
       <c r="D119" t="s">
-        <v>354</v>
+        <v>144</v>
       </c>
       <c r="E119" t="s">
-        <v>355</v>
+        <v>145</v>
       </c>
       <c r="F119" t="s">
         <v>3</v>
@@ -3830,18 +4333,1129 @@
         <v>4</v>
       </c>
       <c r="B120" t="s">
+        <v>146</v>
+      </c>
+      <c r="D120" t="s">
+        <v>147</v>
+      </c>
+      <c r="E120" t="s">
+        <v>148</v>
+      </c>
+      <c r="F120" t="s">
+        <v>3</v>
+      </c>
+      <c r="G120" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>149</v>
+      </c>
+      <c r="D121" t="s">
+        <v>150</v>
+      </c>
+      <c r="E121" t="s">
+        <v>151</v>
+      </c>
+      <c r="F121" t="s">
+        <v>3</v>
+      </c>
+      <c r="G121" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>484</v>
+      </c>
+      <c r="D122" t="s">
+        <v>485</v>
+      </c>
+      <c r="E122" t="s">
+        <v>486</v>
+      </c>
+      <c r="F122" t="s">
+        <v>3</v>
+      </c>
+      <c r="G122" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>487</v>
+      </c>
+      <c r="D123" t="s">
+        <v>326</v>
+      </c>
+      <c r="E123" t="s">
+        <v>327</v>
+      </c>
+      <c r="F123" t="s">
+        <v>3</v>
+      </c>
+      <c r="G123" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>152</v>
+      </c>
+      <c r="D124" t="s">
+        <v>153</v>
+      </c>
+      <c r="E124" t="s">
+        <v>154</v>
+      </c>
+      <c r="F124" t="s">
+        <v>3</v>
+      </c>
+      <c r="G124" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>155</v>
+      </c>
+      <c r="D125" t="s">
+        <v>156</v>
+      </c>
+      <c r="E125" t="s">
+        <v>157</v>
+      </c>
+      <c r="F125" t="s">
+        <v>3</v>
+      </c>
+      <c r="G125" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>488</v>
+      </c>
+      <c r="D126" t="s">
+        <v>328</v>
+      </c>
+      <c r="E126" t="s">
+        <v>329</v>
+      </c>
+      <c r="F126" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>274</v>
+      </c>
+      <c r="D127" t="s">
+        <v>247</v>
+      </c>
+      <c r="E127" t="s">
+        <v>300</v>
+      </c>
+      <c r="F127" t="s">
+        <v>3</v>
+      </c>
+      <c r="G127" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>275</v>
+      </c>
+      <c r="D128" t="s">
+        <v>248</v>
+      </c>
+      <c r="E128" t="s">
+        <v>301</v>
+      </c>
+      <c r="F128" t="s">
+        <v>3</v>
+      </c>
+      <c r="G128" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>489</v>
+      </c>
+      <c r="D129" t="s">
+        <v>490</v>
+      </c>
+      <c r="E129" t="s">
+        <v>491</v>
+      </c>
+      <c r="F129" t="s">
+        <v>3</v>
+      </c>
+      <c r="G129" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" t="s">
+        <v>158</v>
+      </c>
+      <c r="D130" t="s">
+        <v>159</v>
+      </c>
+      <c r="E130" t="s">
+        <v>160</v>
+      </c>
+      <c r="F130" t="s">
+        <v>3</v>
+      </c>
+      <c r="G130" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" t="s">
+        <v>161</v>
+      </c>
+      <c r="D131" t="s">
+        <v>162</v>
+      </c>
+      <c r="E131" t="s">
+        <v>163</v>
+      </c>
+      <c r="F131" t="s">
+        <v>3</v>
+      </c>
+      <c r="G131" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>314</v>
+      </c>
+      <c r="D132" t="s">
+        <v>249</v>
+      </c>
+      <c r="E132" t="s">
+        <v>302</v>
+      </c>
+      <c r="F132" t="s">
+        <v>3</v>
+      </c>
+      <c r="G132" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" t="s">
+        <v>164</v>
+      </c>
+      <c r="D133" t="s">
+        <v>165</v>
+      </c>
+      <c r="E133" t="s">
+        <v>166</v>
+      </c>
+      <c r="F133" t="s">
+        <v>3</v>
+      </c>
+      <c r="G133" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" t="s">
+        <v>167</v>
+      </c>
+      <c r="D134" t="s">
+        <v>168</v>
+      </c>
+      <c r="E134" t="s">
+        <v>169</v>
+      </c>
+      <c r="F134" t="s">
+        <v>3</v>
+      </c>
+      <c r="G134" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>170</v>
+      </c>
+      <c r="D135" t="s">
+        <v>171</v>
+      </c>
+      <c r="E135" t="s">
+        <v>172</v>
+      </c>
+      <c r="F135" t="s">
+        <v>3</v>
+      </c>
+      <c r="G135" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" t="s">
+        <v>173</v>
+      </c>
+      <c r="D136" t="s">
+        <v>174</v>
+      </c>
+      <c r="E136" t="s">
+        <v>175</v>
+      </c>
+      <c r="F136" t="s">
+        <v>3</v>
+      </c>
+      <c r="G136" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>176</v>
+      </c>
+      <c r="D137" t="s">
+        <v>177</v>
+      </c>
+      <c r="E137" t="s">
+        <v>178</v>
+      </c>
+      <c r="F137" t="s">
+        <v>3</v>
+      </c>
+      <c r="G137" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>179</v>
+      </c>
+      <c r="D138" t="s">
+        <v>180</v>
+      </c>
+      <c r="E138" t="s">
+        <v>181</v>
+      </c>
+      <c r="F138" t="s">
+        <v>3</v>
+      </c>
+      <c r="G138" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>182</v>
+      </c>
+      <c r="D139" t="s">
+        <v>183</v>
+      </c>
+      <c r="E139" t="s">
+        <v>184</v>
+      </c>
+      <c r="F139" t="s">
+        <v>3</v>
+      </c>
+      <c r="G139" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" t="s">
+        <v>492</v>
+      </c>
+      <c r="D140" t="s">
+        <v>493</v>
+      </c>
+      <c r="E140" t="s">
+        <v>494</v>
+      </c>
+      <c r="F140" t="s">
+        <v>3</v>
+      </c>
+      <c r="G140" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" t="s">
+        <v>495</v>
+      </c>
+      <c r="D141" t="s">
+        <v>330</v>
+      </c>
+      <c r="E141" t="s">
+        <v>331</v>
+      </c>
+      <c r="F141" t="s">
+        <v>3</v>
+      </c>
+      <c r="G141" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" t="s">
+        <v>276</v>
+      </c>
+      <c r="D142" t="s">
+        <v>250</v>
+      </c>
+      <c r="E142" t="s">
+        <v>303</v>
+      </c>
+      <c r="F142" t="s">
+        <v>3</v>
+      </c>
+      <c r="G142" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" t="s">
+        <v>277</v>
+      </c>
+      <c r="D143" t="s">
+        <v>251</v>
+      </c>
+      <c r="E143" t="s">
+        <v>304</v>
+      </c>
+      <c r="F143" t="s">
+        <v>3</v>
+      </c>
+      <c r="G143" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>278</v>
+      </c>
+      <c r="D144" t="s">
+        <v>252</v>
+      </c>
+      <c r="E144" t="s">
+        <v>305</v>
+      </c>
+      <c r="F144" t="s">
+        <v>3</v>
+      </c>
+      <c r="G144" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>185</v>
+      </c>
+      <c r="D145" t="s">
+        <v>186</v>
+      </c>
+      <c r="E145" t="s">
+        <v>187</v>
+      </c>
+      <c r="F145" t="s">
+        <v>3</v>
+      </c>
+      <c r="G145" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>188</v>
+      </c>
+      <c r="D146" t="s">
+        <v>189</v>
+      </c>
+      <c r="E146" t="s">
+        <v>190</v>
+      </c>
+      <c r="F146" t="s">
+        <v>3</v>
+      </c>
+      <c r="G146" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" t="s">
+        <v>279</v>
+      </c>
+      <c r="D147" t="s">
+        <v>253</v>
+      </c>
+      <c r="E147" t="s">
+        <v>306</v>
+      </c>
+      <c r="F147" t="s">
+        <v>3</v>
+      </c>
+      <c r="G147" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" t="s">
+        <v>350</v>
+      </c>
+      <c r="D148" t="s">
+        <v>351</v>
+      </c>
+      <c r="E148" t="s">
+        <v>352</v>
+      </c>
+      <c r="F148" t="s">
+        <v>3</v>
+      </c>
+      <c r="G148" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" t="s">
+        <v>496</v>
+      </c>
+      <c r="D149" t="s">
+        <v>497</v>
+      </c>
+      <c r="E149" t="s">
+        <v>498</v>
+      </c>
+      <c r="F149" t="s">
+        <v>3</v>
+      </c>
+      <c r="G149" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D150" t="s">
+        <v>499</v>
+      </c>
+      <c r="E150" t="s">
+        <v>500</v>
+      </c>
+      <c r="F150" t="s">
+        <v>3</v>
+      </c>
+      <c r="G150" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" t="s">
+        <v>191</v>
+      </c>
+      <c r="D151" t="s">
+        <v>192</v>
+      </c>
+      <c r="E151" t="s">
+        <v>193</v>
+      </c>
+      <c r="F151" t="s">
+        <v>3</v>
+      </c>
+      <c r="G151" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s">
+        <v>501</v>
+      </c>
+      <c r="D152" t="s">
+        <v>502</v>
+      </c>
+      <c r="E152" t="s">
+        <v>503</v>
+      </c>
+      <c r="F152" t="s">
+        <v>3</v>
+      </c>
+      <c r="G152" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" t="s">
+        <v>315</v>
+      </c>
+      <c r="D153" t="s">
+        <v>254</v>
+      </c>
+      <c r="E153" t="s">
+        <v>307</v>
+      </c>
+      <c r="F153" t="s">
+        <v>3</v>
+      </c>
+      <c r="G153" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>280</v>
+      </c>
+      <c r="D154" t="s">
+        <v>255</v>
+      </c>
+      <c r="E154" t="s">
+        <v>308</v>
+      </c>
+      <c r="F154" t="s">
+        <v>3</v>
+      </c>
+      <c r="G154" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>194</v>
+      </c>
+      <c r="D155" t="s">
+        <v>195</v>
+      </c>
+      <c r="E155" t="s">
+        <v>196</v>
+      </c>
+      <c r="F155" t="s">
+        <v>3</v>
+      </c>
+      <c r="G155" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" t="s">
+        <v>504</v>
+      </c>
+      <c r="D156" t="s">
+        <v>505</v>
+      </c>
+      <c r="E156" t="s">
+        <v>506</v>
+      </c>
+      <c r="F156" t="s">
+        <v>3</v>
+      </c>
+      <c r="G156" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>197</v>
+      </c>
+      <c r="D157" t="s">
+        <v>198</v>
+      </c>
+      <c r="E157" t="s">
+        <v>199</v>
+      </c>
+      <c r="F157" t="s">
+        <v>3</v>
+      </c>
+      <c r="G157" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>281</v>
+      </c>
+      <c r="D158" t="s">
+        <v>256</v>
+      </c>
+      <c r="E158" t="s">
+        <v>309</v>
+      </c>
+      <c r="F158" t="s">
+        <v>3</v>
+      </c>
+      <c r="G158" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" t="s">
+        <v>200</v>
+      </c>
+      <c r="D159" t="s">
+        <v>201</v>
+      </c>
+      <c r="E159" t="s">
+        <v>202</v>
+      </c>
+      <c r="F159" t="s">
+        <v>3</v>
+      </c>
+      <c r="G159" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>507</v>
+      </c>
+      <c r="D160" t="s">
+        <v>508</v>
+      </c>
+      <c r="E160" t="s">
+        <v>509</v>
+      </c>
+      <c r="F160" t="s">
+        <v>3</v>
+      </c>
+      <c r="G160" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" t="s">
+        <v>510</v>
+      </c>
+      <c r="D161" t="s">
+        <v>511</v>
+      </c>
+      <c r="E161" t="s">
+        <v>512</v>
+      </c>
+      <c r="F161" t="s">
+        <v>3</v>
+      </c>
+      <c r="G161" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>513</v>
+      </c>
+      <c r="E162" t="s">
+        <v>514</v>
+      </c>
+      <c r="F162" t="s">
+        <v>3</v>
+      </c>
+      <c r="G162" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" t="s">
+        <v>203</v>
+      </c>
+      <c r="D163" t="s">
+        <v>204</v>
+      </c>
+      <c r="E163" t="s">
+        <v>205</v>
+      </c>
+      <c r="F163" t="s">
+        <v>3</v>
+      </c>
+      <c r="G163" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" t="s">
+        <v>206</v>
+      </c>
+      <c r="D164" t="s">
+        <v>207</v>
+      </c>
+      <c r="E164" t="s">
+        <v>208</v>
+      </c>
+      <c r="F164" t="s">
+        <v>3</v>
+      </c>
+      <c r="G164" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" t="s">
+        <v>515</v>
+      </c>
+      <c r="D165" t="s">
+        <v>332</v>
+      </c>
+      <c r="E165" t="s">
+        <v>333</v>
+      </c>
+      <c r="F165" t="s">
+        <v>3</v>
+      </c>
+      <c r="G165" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" t="s">
+        <v>209</v>
+      </c>
+      <c r="D166" t="s">
+        <v>210</v>
+      </c>
+      <c r="E166" t="s">
+        <v>211</v>
+      </c>
+      <c r="F166" t="s">
+        <v>3</v>
+      </c>
+      <c r="G166" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>516</v>
+      </c>
+      <c r="D167" t="s">
+        <v>517</v>
+      </c>
+      <c r="E167" t="s">
+        <v>518</v>
+      </c>
+      <c r="F167" t="s">
+        <v>3</v>
+      </c>
+      <c r="G167" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" t="s">
+        <v>519</v>
+      </c>
+      <c r="D168" t="s">
+        <v>520</v>
+      </c>
+      <c r="E168" t="s">
+        <v>521</v>
+      </c>
+      <c r="F168" t="s">
+        <v>3</v>
+      </c>
+      <c r="G168" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" t="s">
+        <v>212</v>
+      </c>
+      <c r="D169" t="s">
+        <v>213</v>
+      </c>
+      <c r="E169" t="s">
+        <v>214</v>
+      </c>
+      <c r="F169" t="s">
+        <v>3</v>
+      </c>
+      <c r="G169" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>4</v>
+      </c>
+      <c r="D170" t="s">
+        <v>334</v>
+      </c>
+      <c r="E170" t="s">
+        <v>335</v>
+      </c>
+      <c r="F170" t="s">
+        <v>3</v>
+      </c>
+      <c r="G170" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s">
+        <v>282</v>
+      </c>
+      <c r="D171" t="s">
+        <v>257</v>
+      </c>
+      <c r="E171" t="s">
+        <v>310</v>
+      </c>
+      <c r="F171" t="s">
+        <v>3</v>
+      </c>
+      <c r="G171" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" t="s">
+        <v>522</v>
+      </c>
+      <c r="D172" t="s">
+        <v>336</v>
+      </c>
+      <c r="E172" t="s">
+        <v>337</v>
+      </c>
+      <c r="F172" t="s">
+        <v>3</v>
+      </c>
+      <c r="G172" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" t="s">
+        <v>215</v>
+      </c>
+      <c r="D173" t="s">
+        <v>216</v>
+      </c>
+      <c r="E173" t="s">
+        <v>217</v>
+      </c>
+      <c r="F173" t="s">
+        <v>3</v>
+      </c>
+      <c r="G173" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" t="s">
+        <v>353</v>
+      </c>
+      <c r="D174" t="s">
+        <v>354</v>
+      </c>
+      <c r="E174" t="s">
+        <v>355</v>
+      </c>
+      <c r="F174" t="s">
+        <v>3</v>
+      </c>
+      <c r="G174" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
         <v>283</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D175" t="s">
         <v>258</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E175" t="s">
         <v>311</v>
       </c>
-      <c r="F120" t="s">
-        <v>3</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="F175" t="s">
+        <v>3</v>
+      </c>
+      <c r="G175" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" t="s">
+        <v>218</v>
+      </c>
+      <c r="D176" t="s">
+        <v>219</v>
+      </c>
+      <c r="E176" t="s">
+        <v>220</v>
+      </c>
+      <c r="F176" t="s">
+        <v>3</v>
+      </c>
+      <c r="G176" t="s">
         <v>230</v>
       </c>
     </row>
